--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Serping1-Selp.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Serping1-Selp.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>6.159891999999999</v>
+        <v>10.218698</v>
       </c>
       <c r="H2">
-        <v>18.479676</v>
+        <v>30.656094</v>
       </c>
       <c r="I2">
-        <v>0.007079533182016282</v>
+        <v>0.01131191978527373</v>
       </c>
       <c r="J2">
-        <v>0.007079533182016282</v>
+        <v>0.01131191978527373</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.90215733333334</v>
+        <v>40.81054266666667</v>
       </c>
       <c r="N2">
-        <v>53.70647200000001</v>
+        <v>122.431628</v>
       </c>
       <c r="O2">
-        <v>0.9729544377046332</v>
+        <v>0.9943414173631485</v>
       </c>
       <c r="P2">
-        <v>0.9729544377046332</v>
+        <v>0.9943414173631485</v>
       </c>
       <c r="Q2">
-        <v>110.2753557403413</v>
+        <v>417.0306107267813</v>
       </c>
       <c r="R2">
-        <v>992.478201663072</v>
+        <v>3753.275496541032</v>
       </c>
       <c r="S2">
-        <v>0.006888063226319944</v>
+        <v>0.01124791035238732</v>
       </c>
       <c r="T2">
-        <v>0.006888063226319944</v>
+        <v>0.01124791035238733</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>6.159891999999999</v>
+        <v>10.218698</v>
       </c>
       <c r="H3">
-        <v>18.479676</v>
+        <v>30.656094</v>
       </c>
       <c r="I3">
-        <v>0.007079533182016282</v>
+        <v>0.01131191978527373</v>
       </c>
       <c r="J3">
-        <v>0.007079533182016282</v>
+        <v>0.01131191978527373</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.03385</v>
       </c>
       <c r="O3">
-        <v>0.0006132316365204891</v>
+        <v>0.0002749163555820933</v>
       </c>
       <c r="P3">
-        <v>0.0006132316365204891</v>
+        <v>0.0002749163555820933</v>
       </c>
       <c r="Q3">
-        <v>0.06950411473333332</v>
+        <v>0.1153009757666666</v>
       </c>
       <c r="R3">
-        <v>0.6255370325999999</v>
+        <v>1.0377087819</v>
       </c>
       <c r="S3">
-        <v>4.34139371900895E-06</v>
+        <v>3.10983176200443E-06</v>
       </c>
       <c r="T3">
-        <v>4.34139371900895E-06</v>
+        <v>3.10983176200443E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>6.159891999999999</v>
+        <v>10.218698</v>
       </c>
       <c r="H4">
-        <v>18.479676</v>
+        <v>30.656094</v>
       </c>
       <c r="I4">
-        <v>0.007079533182016282</v>
+        <v>0.01131191978527373</v>
       </c>
       <c r="J4">
-        <v>0.007079533182016282</v>
+        <v>0.01131191978527373</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,22 +685,22 @@
         <v>0.322187</v>
       </c>
       <c r="O4">
-        <v>0.005836787630003747</v>
+        <v>0.002616675800765965</v>
       </c>
       <c r="P4">
-        <v>0.005836787630003747</v>
+        <v>0.002616675800765965</v>
       </c>
       <c r="Q4">
-        <v>0.6615457079346666</v>
+        <v>1.097443884175333</v>
       </c>
       <c r="R4">
-        <v>5.953911371412</v>
+        <v>9.876994957577999</v>
       </c>
       <c r="S4">
-        <v>4.132173170299371E-05</v>
+        <v>2.95996267623315E-05</v>
       </c>
       <c r="T4">
-        <v>4.132173170299371E-05</v>
+        <v>2.959962676233151E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>10.218698</v>
+      </c>
+      <c r="H5">
+        <v>30.656094</v>
+      </c>
+      <c r="I5">
+        <v>0.01131191978527373</v>
+      </c>
+      <c r="J5">
+        <v>0.01131191978527373</v>
+      </c>
+      <c r="K5">
         <v>2</v>
       </c>
-      <c r="F5">
+      <c r="L5">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G5">
-        <v>6.159891999999999</v>
-      </c>
-      <c r="H5">
-        <v>18.479676</v>
-      </c>
-      <c r="I5">
-        <v>0.007079533182016282</v>
-      </c>
-      <c r="J5">
-        <v>0.007079533182016282</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M5">
-        <v>0.3789536666666667</v>
+        <v>0.113565</v>
       </c>
       <c r="N5">
-        <v>1.136861</v>
+        <v>0.340695</v>
       </c>
       <c r="O5">
-        <v>0.02059554302884254</v>
+        <v>0.002766990480503436</v>
       </c>
       <c r="P5">
-        <v>0.02059554302884254</v>
+        <v>0.002766990480503436</v>
       </c>
       <c r="Q5">
-        <v>2.334313659670666</v>
+        <v>1.16048643837</v>
       </c>
       <c r="R5">
-        <v>21.008822937036</v>
+        <v>10.44437794533</v>
       </c>
       <c r="S5">
-        <v>0.0001458068302743349</v>
+        <v>3.129997436207088E-05</v>
       </c>
       <c r="T5">
-        <v>0.0001458068302743349</v>
+        <v>3.129997436207088E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>2314.415101</v>
       </c>
       <c r="I6">
-        <v>0.8866485810946614</v>
+        <v>0.8540056659644313</v>
       </c>
       <c r="J6">
-        <v>0.8866485810946614</v>
+        <v>0.8540056659644314</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.90215733333334</v>
+        <v>40.81054266666667</v>
       </c>
       <c r="N6">
-        <v>53.70647200000001</v>
+        <v>122.431628</v>
       </c>
       <c r="O6">
-        <v>0.9729544377046332</v>
+        <v>0.9943414173631485</v>
       </c>
       <c r="P6">
-        <v>0.9729544377046332</v>
+        <v>0.9943414173631485</v>
       </c>
       <c r="Q6">
-        <v>13811.00775758152</v>
+        <v>31484.17874257938</v>
       </c>
       <c r="R6">
-        <v>124299.0698182337</v>
+        <v>283357.6086832145</v>
       </c>
       <c r="S6">
-        <v>0.8626686716605672</v>
+        <v>0.8491732043312321</v>
       </c>
       <c r="T6">
-        <v>0.8626686716605672</v>
+        <v>0.8491732043312322</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>2314.415101</v>
       </c>
       <c r="I7">
-        <v>0.8866485810946614</v>
+        <v>0.8540056659644313</v>
       </c>
       <c r="J7">
-        <v>0.8866485810946614</v>
+        <v>0.8540056659644314</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,10 +871,10 @@
         <v>0.03385</v>
       </c>
       <c r="O7">
-        <v>0.0006132316365204891</v>
+        <v>0.0002749163555820933</v>
       </c>
       <c r="P7">
-        <v>0.0006132316365204891</v>
+        <v>0.0002749163555820933</v>
       </c>
       <c r="Q7">
         <v>8.704772352094444</v>
@@ -883,10 +883,10 @@
         <v>78.34295116884999</v>
       </c>
       <c r="S7">
-        <v>0.0005437209604032488</v>
+        <v>0.0002347801253334</v>
       </c>
       <c r="T7">
-        <v>0.0005437209604032488</v>
+        <v>0.0002347801253334</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>2314.415101</v>
       </c>
       <c r="I8">
-        <v>0.8866485810946614</v>
+        <v>0.8540056659644313</v>
       </c>
       <c r="J8">
-        <v>0.8866485810946614</v>
+        <v>0.8540056659644314</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -933,10 +933,10 @@
         <v>0.322187</v>
       </c>
       <c r="O8">
-        <v>0.005836787630003747</v>
+        <v>0.002616675800765965</v>
       </c>
       <c r="P8">
-        <v>0.005836787630003747</v>
+        <v>0.002616675800765965</v>
       </c>
       <c r="Q8">
         <v>82.85271757176523</v>
@@ -945,10 +945,10 @@
         <v>745.674458145887</v>
       </c>
       <c r="S8">
-        <v>0.005175179470293694</v>
+        <v>0.002234655959846149</v>
       </c>
       <c r="T8">
-        <v>0.005175179470293694</v>
+        <v>0.00223465595984615</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>2314.415101</v>
       </c>
       <c r="I9">
-        <v>0.8866485810946614</v>
+        <v>0.8540056659644313</v>
       </c>
       <c r="J9">
-        <v>0.8866485810946614</v>
+        <v>0.8540056659644314</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.3789536666666667</v>
+        <v>0.113565</v>
       </c>
       <c r="N9">
-        <v>1.136861</v>
+        <v>0.340695</v>
       </c>
       <c r="O9">
-        <v>0.02059554302884254</v>
+        <v>0.002766990480503436</v>
       </c>
       <c r="P9">
-        <v>0.02059554302884254</v>
+        <v>0.002766990480503436</v>
       </c>
       <c r="Q9">
-        <v>292.3520295708846</v>
+        <v>87.61218364835501</v>
       </c>
       <c r="R9">
-        <v>2631.168266137961</v>
+        <v>788.5096528351951</v>
       </c>
       <c r="S9">
-        <v>0.01826100900339728</v>
+        <v>0.002363025548019578</v>
       </c>
       <c r="T9">
-        <v>0.01826100900339728</v>
+        <v>0.002363025548019578</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>92.05234666666666</v>
+        <v>121.2114333333333</v>
       </c>
       <c r="H10">
-        <v>276.15704</v>
+        <v>363.6343</v>
       </c>
       <c r="I10">
-        <v>0.1057953033444633</v>
+        <v>0.1341789346279459</v>
       </c>
       <c r="J10">
-        <v>0.1057953033444633</v>
+        <v>0.1341789346279459</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.90215733333334</v>
+        <v>40.81054266666667</v>
       </c>
       <c r="N10">
-        <v>53.70647200000001</v>
+        <v>122.431628</v>
       </c>
       <c r="O10">
-        <v>0.9729544377046332</v>
+        <v>0.9943414173631485</v>
       </c>
       <c r="P10">
-        <v>0.9729544377046332</v>
+        <v>0.9943414173631485</v>
       </c>
       <c r="Q10">
-        <v>1647.935592929209</v>
+        <v>4946.704371737823</v>
       </c>
       <c r="R10">
-        <v>14831.42033636288</v>
+        <v>44520.3393456404</v>
       </c>
       <c r="S10">
-        <v>0.1029340098773034</v>
+        <v>0.133419672038229</v>
       </c>
       <c r="T10">
-        <v>0.1029340098773034</v>
+        <v>0.133419672038229</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>92.05234666666666</v>
+        <v>121.2114333333333</v>
       </c>
       <c r="H11">
-        <v>276.15704</v>
+        <v>363.6343</v>
       </c>
       <c r="I11">
-        <v>0.1057953033444633</v>
+        <v>0.1341789346279459</v>
       </c>
       <c r="J11">
-        <v>0.1057953033444633</v>
+        <v>0.1341789346279459</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,22 +1119,22 @@
         <v>0.03385</v>
       </c>
       <c r="O11">
-        <v>0.0006132316365204891</v>
+        <v>0.0002749163555820933</v>
       </c>
       <c r="P11">
-        <v>0.0006132316365204891</v>
+        <v>0.0002749163555820933</v>
       </c>
       <c r="Q11">
-        <v>1.038657311555556</v>
+        <v>1.367669006111111</v>
       </c>
       <c r="R11">
-        <v>9.347915803999999</v>
+        <v>12.309021055</v>
       </c>
       <c r="S11">
-        <v>6.487702700610679E-05</v>
+        <v>3.688798370380282E-05</v>
       </c>
       <c r="T11">
-        <v>6.487702700610679E-05</v>
+        <v>3.688798370380283E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>92.05234666666666</v>
+        <v>121.2114333333333</v>
       </c>
       <c r="H12">
-        <v>276.15704</v>
+        <v>363.6343</v>
       </c>
       <c r="I12">
-        <v>0.1057953033444633</v>
+        <v>0.1341789346279459</v>
       </c>
       <c r="J12">
-        <v>0.1057953033444633</v>
+        <v>0.1341789346279459</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1181,22 +1181,22 @@
         <v>0.322187</v>
       </c>
       <c r="O12">
-        <v>0.005836787630003747</v>
+        <v>0.002616675800765965</v>
       </c>
       <c r="P12">
-        <v>0.005836787630003747</v>
+        <v>0.002616675800765965</v>
       </c>
       <c r="Q12">
-        <v>9.886023138497778</v>
+        <v>13.01758269045555</v>
       </c>
       <c r="R12">
-        <v>88.97420824648</v>
+        <v>117.1582442141</v>
       </c>
       <c r="S12">
-        <v>0.0006175047178734573</v>
+        <v>0.0003511027712135043</v>
       </c>
       <c r="T12">
-        <v>0.0006175047178734573</v>
+        <v>0.0003511027712135044</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>92.05234666666666</v>
+        <v>121.2114333333333</v>
       </c>
       <c r="H13">
-        <v>276.15704</v>
+        <v>363.6343</v>
       </c>
       <c r="I13">
-        <v>0.1057953033444633</v>
+        <v>0.1341789346279459</v>
       </c>
       <c r="J13">
-        <v>0.1057953033444633</v>
+        <v>0.1341789346279459</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.3789536666666667</v>
+        <v>0.113565</v>
       </c>
       <c r="N13">
-        <v>1.136861</v>
+        <v>0.340695</v>
       </c>
       <c r="O13">
-        <v>0.02059554302884254</v>
+        <v>0.002766990480503436</v>
       </c>
       <c r="P13">
-        <v>0.02059554302884254</v>
+        <v>0.002766990480503436</v>
       </c>
       <c r="Q13">
-        <v>34.88357429460444</v>
+        <v>13.7653764265</v>
       </c>
       <c r="R13">
-        <v>313.95216865144</v>
+        <v>123.8883878385</v>
       </c>
       <c r="S13">
-        <v>0.002178911722280342</v>
+        <v>0.0003712718347996191</v>
       </c>
       <c r="T13">
-        <v>0.002178911722280342</v>
+        <v>0.0003712718347996191</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.4146736666666667</v>
+        <v>0.4548216666666667</v>
       </c>
       <c r="H14">
-        <v>1.244021</v>
+        <v>1.364465</v>
       </c>
       <c r="I14">
-        <v>0.0004765823788590816</v>
+        <v>0.0005034796223489374</v>
       </c>
       <c r="J14">
-        <v>0.0004765823788590817</v>
+        <v>0.0005034796223489374</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>17.90215733333334</v>
+        <v>40.81054266666667</v>
       </c>
       <c r="N14">
-        <v>53.70647200000001</v>
+        <v>122.431628</v>
       </c>
       <c r="O14">
-        <v>0.9729544377046332</v>
+        <v>0.9943414173631485</v>
       </c>
       <c r="P14">
-        <v>0.9729544377046332</v>
+        <v>0.9943414173631485</v>
       </c>
       <c r="Q14">
-        <v>7.423553222656889</v>
+        <v>18.56151903322445</v>
       </c>
       <c r="R14">
-        <v>66.81197900391201</v>
+        <v>167.05367129902</v>
       </c>
       <c r="S14">
-        <v>0.0004636929404427742</v>
+        <v>0.0005006306412999052</v>
       </c>
       <c r="T14">
-        <v>0.0004636929404427743</v>
+        <v>0.0005006306412999052</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.4146736666666667</v>
+        <v>0.4548216666666667</v>
       </c>
       <c r="H15">
-        <v>1.244021</v>
+        <v>1.364465</v>
       </c>
       <c r="I15">
-        <v>0.0004765823788590816</v>
+        <v>0.0005034796223489374</v>
       </c>
       <c r="J15">
-        <v>0.0004765823788590817</v>
+        <v>0.0005034796223489374</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1367,22 +1367,22 @@
         <v>0.03385</v>
       </c>
       <c r="O15">
-        <v>0.0006132316365204891</v>
+        <v>0.0002749163555820933</v>
       </c>
       <c r="P15">
-        <v>0.0006132316365204891</v>
+        <v>0.0002749163555820933</v>
       </c>
       <c r="Q15">
-        <v>0.004678901205555555</v>
+        <v>0.005131904472222222</v>
       </c>
       <c r="R15">
-        <v>0.04211011085</v>
+        <v>0.04618714025</v>
       </c>
       <c r="S15">
-        <v>2.922553921245824E-07</v>
+        <v>1.384147828860185E-07</v>
       </c>
       <c r="T15">
-        <v>2.922553921245824E-07</v>
+        <v>1.384147828860185E-07</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.4146736666666667</v>
+        <v>0.4548216666666667</v>
       </c>
       <c r="H16">
-        <v>1.244021</v>
+        <v>1.364465</v>
       </c>
       <c r="I16">
-        <v>0.0004765823788590816</v>
+        <v>0.0005034796223489374</v>
       </c>
       <c r="J16">
-        <v>0.0004765823788590817</v>
+        <v>0.0005034796223489374</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1429,22 +1429,22 @@
         <v>0.322187</v>
       </c>
       <c r="O16">
-        <v>0.005836787630003747</v>
+        <v>0.002616675800765965</v>
       </c>
       <c r="P16">
-        <v>0.005836787630003747</v>
+        <v>0.002616675800765965</v>
       </c>
       <c r="Q16">
-        <v>0.04453415488077778</v>
+        <v>0.04884587610611111</v>
       </c>
       <c r="R16">
-        <v>0.400807393927</v>
+        <v>0.439612884955</v>
       </c>
       <c r="S16">
-        <v>2.781710133602447E-06</v>
+        <v>1.317442943979251E-06</v>
       </c>
       <c r="T16">
-        <v>2.781710133602447E-06</v>
+        <v>1.317442943979251E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.4146736666666667</v>
+        <v>0.4548216666666667</v>
       </c>
       <c r="H17">
-        <v>1.244021</v>
+        <v>1.364465</v>
       </c>
       <c r="I17">
-        <v>0.0004765823788590816</v>
+        <v>0.0005034796223489374</v>
       </c>
       <c r="J17">
-        <v>0.0004765823788590817</v>
+        <v>0.0005034796223489374</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.3789536666666667</v>
+        <v>0.113565</v>
       </c>
       <c r="N17">
-        <v>1.136861</v>
+        <v>0.340695</v>
       </c>
       <c r="O17">
-        <v>0.02059554302884254</v>
+        <v>0.002766990480503436</v>
       </c>
       <c r="P17">
-        <v>0.02059554302884254</v>
+        <v>0.002766990480503436</v>
       </c>
       <c r="Q17">
-        <v>0.1571421064534445</v>
+        <v>0.05165182257500001</v>
       </c>
       <c r="R17">
-        <v>1.414278958081</v>
+        <v>0.4648664031750001</v>
       </c>
       <c r="S17">
-        <v>9.815472890580351E-06</v>
+        <v>1.393123322166974E-06</v>
       </c>
       <c r="T17">
-        <v>9.815472890580352E-06</v>
+        <v>1.393123322166974E-06</v>
       </c>
     </row>
   </sheetData>
